--- a/tabelki.xlsx
+++ b/tabelki.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zadania\Studia\4 Rok\Telekomunikacja\LoRa_Broadcast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0fdd06a6c79345e9/studia/Sezon_7/Projekt_Lo_Ra/GIT3/LoRa_Broadcast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D080CDC-199C-4BF9-8752-C027E5992421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{8D080CDC-199C-4BF9-8752-C027E5992421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9503F599-B072-4002-B812-EC1B25BCCDE2}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{AAB5589D-2091-43AA-B441-CC992D720459}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{AAB5589D-2091-43AA-B441-CC992D720459}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,76 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="45">
-  <si>
-    <t xml:space="preserve"> -7.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -6.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -3.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -6.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -9.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -1.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -9.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -2.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.00</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.25</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -132,45 +63,6 @@
   </si>
   <si>
     <t>Pakiet</t>
-  </si>
-  <si>
-    <t>-9.50</t>
-  </si>
-  <si>
-    <t>-6.75</t>
-  </si>
-  <si>
-    <t>-3.00</t>
-  </si>
-  <si>
-    <t>-2.25</t>
-  </si>
-  <si>
-    <t>-4.50</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>-3.50</t>
-  </si>
-  <si>
-    <t>-6.25</t>
-  </si>
-  <si>
-    <t>-4.25</t>
-  </si>
-  <si>
-    <t>-8.75</t>
-  </si>
-  <si>
-    <t>-7.75</t>
-  </si>
-  <si>
-    <t>-8.25</t>
-  </si>
-  <si>
-    <t>-9.00</t>
   </si>
 </sst>
 </file>
@@ -243,6 +135,4143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SNR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$3:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$3:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>-7.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96F7-42F9-9BCA-EAEABEBB63B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="451109304"/>
+        <c:axId val="451110024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="451109304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451110024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="451110024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451109304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RSSI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$3:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$3:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-107</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-106</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-106</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-103</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-105</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-108</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-105</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-104</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-104</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-105</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-92</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-97</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-88</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-81</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-77</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-67</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-316C-40EF-9045-6D38CD231185}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="674621752"/>
+        <c:axId val="674622832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="674621752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674622832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="674622832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674621752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SNR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$I$3:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$J$3:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-9.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E53-415E-83BE-7010DB94286F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="673702792"/>
+        <c:axId val="710063568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="673702792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="710063568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="710063568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673702792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RSSI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$I$3:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$K$3:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-109</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-109</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-109</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-109</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-113</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-111</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-113</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-111</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7774-498A-BD78-C2DCC507B78D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="670751744"/>
+        <c:axId val="670752104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="670751744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="670752104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="670752104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="670751744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>98913</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>49823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>413971</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>126023</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC380DD3-11A5-8487-4530-39BD1B9CA443}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>120894</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>181707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>435952</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>67407</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBBAC713-803E-1231-ED6F-4606DADF62FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>597144</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>304067</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Wykres 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7979BA1-88AA-B960-CC22-A9D24B8070F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>582490</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>130420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>289413</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>16120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Wykres 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57BF3FCA-4813-4290-BD61-9B932AF66216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -564,8 +4593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4FEFC8-9F84-4F26-8145-D017C4CF761C}">
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Z37" sqref="Z37:Z38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,656 +4604,657 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
+      <c r="C3" s="2">
+        <v>-7.25</v>
       </c>
       <c r="D3" s="2">
         <v>-110</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1">
         <v>11</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
+      <c r="J3" s="2">
+        <v>-9.5</v>
       </c>
       <c r="K3" s="2">
         <v>-110</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
+      <c r="C4" s="2">
+        <v>-6.75</v>
       </c>
       <c r="D4" s="2">
         <v>-111</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1">
         <v>14</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>33</v>
+      <c r="J4" s="2">
+        <v>-6.75</v>
       </c>
       <c r="K4" s="2">
         <v>-113</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
+      <c r="C5" s="2">
+        <v>-3</v>
       </c>
       <c r="D5" s="2">
         <v>-106</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1">
         <v>18</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>34</v>
+      <c r="J5" s="2">
+        <v>-3</v>
       </c>
       <c r="K5" s="2">
         <v>-109</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
+      <c r="C6" s="2">
+        <v>-6.5</v>
       </c>
       <c r="D6" s="2">
         <v>-108</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I6" s="1">
         <v>19</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>35</v>
+      <c r="J6" s="2">
+        <v>-2.25</v>
       </c>
       <c r="K6" s="2">
         <v>-111</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
+      <c r="C7" s="2">
+        <v>-9.25</v>
       </c>
       <c r="D7" s="2">
         <v>-110</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I7" s="1">
         <v>20</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>36</v>
+      <c r="J7" s="2">
+        <v>-4.5</v>
       </c>
       <c r="K7" s="2">
         <v>-109</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
+      <c r="C8" s="2">
+        <v>-1.25</v>
       </c>
       <c r="D8" s="2">
         <v>-106</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I8" s="1">
         <v>22</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>37</v>
+      <c r="J8" s="2">
+        <v>0</v>
       </c>
       <c r="K8" s="2">
         <v>-110</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>15</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
+      <c r="C9" s="2">
+        <v>-9</v>
       </c>
       <c r="D9" s="2">
         <v>-108</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="I9" s="1">
         <v>23</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>38</v>
+      <c r="J9" s="2">
+        <v>-3.5</v>
       </c>
       <c r="K9" s="2">
         <v>-112</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
+      <c r="C10" s="2">
+        <v>-2.5</v>
       </c>
       <c r="D10" s="2">
         <v>-111</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I10" s="1">
         <v>24</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>39</v>
+      <c r="J10" s="2">
+        <v>-6.25</v>
       </c>
       <c r="K10" s="2">
         <v>-112</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
+      <c r="C11" s="2">
+        <v>-2.5</v>
       </c>
       <c r="D11" s="2">
         <v>-109</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I11" s="1">
         <v>26</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>36</v>
+      <c r="J11" s="2">
+        <v>-4.5</v>
       </c>
       <c r="K11" s="2">
         <v>-112</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>18</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
+      <c r="C12" s="2">
+        <v>3.25</v>
       </c>
       <c r="D12" s="2">
         <v>-107</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I12" s="1">
         <v>27</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>33</v>
+      <c r="J12" s="2">
+        <v>-6.75</v>
       </c>
       <c r="K12" s="2">
         <v>-109</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>19</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
+      <c r="C13" s="2">
+        <v>4</v>
       </c>
       <c r="D13" s="2">
         <v>-106</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I13" s="1">
         <v>28</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>38</v>
+      <c r="J13" s="2">
+        <v>-3.5</v>
       </c>
       <c r="K13" s="2">
         <v>-109</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>20</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
+      <c r="C14" s="2">
+        <v>2.5</v>
       </c>
       <c r="D14" s="2">
         <v>-106</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I14" s="1">
         <v>33</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>36</v>
+      <c r="J14" s="2">
+        <v>-4.5</v>
       </c>
       <c r="K14" s="2">
         <v>-109</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>21</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
+      <c r="C15" s="2">
+        <v>7</v>
       </c>
       <c r="D15" s="2">
         <v>-103</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I15" s="1">
         <v>34</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>40</v>
+      <c r="J15" s="2">
+        <v>-4.25</v>
       </c>
       <c r="K15" s="2">
         <v>-113</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>22</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
+      <c r="C16" s="2">
+        <v>3</v>
       </c>
       <c r="D16" s="2">
         <v>-105</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I16" s="1">
         <v>37</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>41</v>
+      <c r="J16" s="2">
+        <v>-8.75</v>
       </c>
       <c r="K16" s="2">
         <v>-111</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>23</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
+      <c r="C17" s="2">
+        <v>3</v>
       </c>
       <c r="D17" s="2">
         <v>-108</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I17" s="1">
         <v>40</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>42</v>
+      <c r="J17" s="2">
+        <v>-7.75</v>
       </c>
       <c r="K17" s="2">
         <v>-113</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>24</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
+      <c r="C18" s="2">
+        <v>3.5</v>
       </c>
       <c r="D18" s="2">
         <v>-105</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I18" s="1">
         <v>42</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>43</v>
+      <c r="J18" s="2">
+        <v>-8.25</v>
       </c>
       <c r="K18" s="2">
         <v>-111</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>25</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>16</v>
+      <c r="C19" s="2">
+        <v>2.5</v>
       </c>
       <c r="D19" s="2">
         <v>-104</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I19" s="1">
         <v>46</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>44</v>
+      <c r="J19" s="2">
+        <v>-9</v>
       </c>
       <c r="K19" s="2">
         <v>-109</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>26</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>21</v>
+      <c r="C20" s="2">
+        <v>6.25</v>
       </c>
       <c r="D20" s="2">
         <v>-100</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>27</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>21</v>
+      <c r="C21" s="2">
+        <v>6.25</v>
       </c>
       <c r="D21" s="2">
         <v>-104</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>28</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>22</v>
+      <c r="C22" s="2">
+        <v>5.25</v>
       </c>
       <c r="D22" s="2">
         <v>-105</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>29</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>2</v>
+      <c r="C23" s="2">
+        <v>8.5</v>
       </c>
       <c r="D23" s="2">
         <v>-92</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>30</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
+      <c r="C24" s="2">
+        <v>8.25</v>
       </c>
       <c r="D24" s="2">
         <v>-97</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>31</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>4</v>
+      <c r="C25" s="2">
+        <v>9.25</v>
       </c>
       <c r="D25" s="2">
         <v>-90</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>32</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>4</v>
+      <c r="C26" s="2">
+        <v>9.25</v>
       </c>
       <c r="D26" s="2">
         <v>-90</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>33</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>5</v>
+      <c r="C27" s="2">
+        <v>9</v>
       </c>
       <c r="D27" s="2">
         <v>-88</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>34</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>6</v>
+      <c r="C28" s="2">
+        <v>9.5</v>
       </c>
       <c r="D28" s="2">
         <v>-81</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>35</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>6</v>
+      <c r="C29" s="2">
+        <v>9.5</v>
       </c>
       <c r="D29" s="2">
         <v>-77</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>36</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>6</v>
+      <c r="C30" s="2">
+        <v>9.5</v>
       </c>
       <c r="D30" s="2">
         <v>-70</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>37</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>7</v>
+      <c r="C31" s="2">
+        <v>9.75</v>
       </c>
       <c r="D31" s="2">
         <v>-67</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>38</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>4</v>
+      <c r="C32" s="2">
+        <v>9.25</v>
       </c>
       <c r="D32" s="2">
         <v>-26</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tabelki.xlsx
+++ b/tabelki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0fdd06a6c79345e9/studia/Sezon_7/Projekt_Lo_Ra/GIT3/LoRa_Broadcast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{8D080CDC-199C-4BF9-8752-C027E5992421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9503F599-B072-4002-B812-EC1B25BCCDE2}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{8D080CDC-199C-4BF9-8752-C027E5992421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5DA4C2C-B2F1-403D-969C-4C401F91D7E8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{AAB5589D-2091-43AA-B441-CC992D720459}"/>
   </bookViews>
@@ -4274,6 +4274,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
@@ -4594,7 +4598,7 @@
   <dimension ref="B2:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Z37" sqref="Z37:Z38"/>
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
